--- a/biology/Botanique/Lithonida/Lithonida.xlsx
+++ b/biology/Botanique/Lithonida/Lithonida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lithonida est un ordre d’éponges de la sous-classe des Calcaronea, de la classe des Calcarea, de l’embranchement des Porifera.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des Calcaronea avec un squelette renforcé consistant soit lié ou cimenté avec des actines basales de tétractines, soit d'une masse semi-rigide de base de calcite.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (30 mai 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (30 mai 2013) :
 famille des Minchinellidae Dendy &amp; Row, 1913
 genre Minchinella
 genre Monoplectroninia
@@ -554,7 +570,7 @@
 genre Tulearinia
 famille des Petrobionidae Borojevic, 1979
 genre Petrobiona
-Selon World Register of Marine Species                               (30 mai 2013)[2] :
+Selon World Register of Marine Species                               (30 mai 2013) :
 famille des Minchinellidae Dendy &amp; Row, 1913
 famille des Petrobionidae Borojevic, 1979</t>
         </is>
